--- a/2023/(A) 4.xlsx
+++ b/2023/(A) 4.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="122">
   <si>
     <t>Տողի
 Ւ1Ւ1</t>
@@ -66,6 +66,9 @@
 (տող 1110 + տող 1120 + տող 1130 + տող 1140 + տող
 1150),
 այդ թվում՝</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
   <si>
     <t>1.1 Գույքային հարկեր անշարժ գույքից
@@ -670,9 +673,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0.000"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="10.0"/>
@@ -751,7 +751,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -791,22 +791,19 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="5" fillId="0" fontId="1" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="5" fillId="0" fontId="1" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
@@ -818,13 +815,13 @@
     <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="7" fillId="0" fontId="1" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="7" fillId="0" fontId="1" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="8" fillId="0" fontId="1" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -1214,28 +1211,34 @@
       <c r="E6" s="14">
         <v>2.53480327E7</v>
       </c>
-      <c r="F6" s="17"/>
+      <c r="F6" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="G6" s="14">
         <v>2.53922577E7</v>
       </c>
       <c r="H6" s="14">
         <v>2.53922577E7</v>
       </c>
-      <c r="I6" s="17"/>
+      <c r="I6" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="J6" s="14">
         <v>2.40479431E7</v>
       </c>
       <c r="K6" s="14">
         <v>2.31255367E7</v>
       </c>
-      <c r="L6" s="18"/>
+      <c r="L6" s="17" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="11">
         <v>1110.0</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" s="16">
         <v>7131.0</v>
@@ -1246,28 +1249,34 @@
       <c r="E7" s="14">
         <v>9290641.1</v>
       </c>
-      <c r="F7" s="17"/>
+      <c r="F7" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="G7" s="14">
         <v>9290641.1</v>
       </c>
       <c r="H7" s="14">
         <v>9290641.1</v>
       </c>
-      <c r="I7" s="17"/>
+      <c r="I7" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="J7" s="14">
         <v>7906732.8</v>
       </c>
       <c r="K7" s="14">
         <v>7906732.8</v>
       </c>
-      <c r="L7" s="18"/>
+      <c r="L7" s="17" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="11">
         <v>1111.0</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="14">
@@ -1276,28 +1285,34 @@
       <c r="E8" s="14">
         <v>1248282.7</v>
       </c>
-      <c r="F8" s="17"/>
+      <c r="F8" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="G8" s="14">
         <v>1248282.7</v>
       </c>
       <c r="H8" s="14">
         <v>1248282.7</v>
       </c>
-      <c r="I8" s="17"/>
+      <c r="I8" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="J8" s="14">
         <v>458069.0</v>
       </c>
       <c r="K8" s="14">
         <v>458069.0</v>
       </c>
-      <c r="L8" s="18"/>
+      <c r="L8" s="17" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="11">
         <v>1112.0</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="14">
@@ -1306,28 +1321,34 @@
       <c r="E9" s="14">
         <v>212131.6</v>
       </c>
-      <c r="F9" s="17"/>
+      <c r="F9" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="G9" s="14">
         <v>212131.6</v>
       </c>
       <c r="H9" s="14">
         <v>212131.6</v>
       </c>
-      <c r="I9" s="17"/>
+      <c r="I9" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="J9" s="14">
         <v>71106.3</v>
       </c>
       <c r="K9" s="14">
         <v>71106.3</v>
       </c>
-      <c r="L9" s="18"/>
+      <c r="L9" s="17" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="11">
         <v>1113.0</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C10" s="16">
         <v>7136.0</v>
@@ -1338,28 +1359,34 @@
       <c r="E10" s="14">
         <v>7830226.8</v>
       </c>
-      <c r="F10" s="17"/>
+      <c r="F10" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="G10" s="14">
         <v>7830226.8</v>
       </c>
       <c r="H10" s="14">
         <v>7830226.8</v>
       </c>
-      <c r="I10" s="17"/>
+      <c r="I10" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="J10" s="14">
         <v>7377557.5</v>
       </c>
       <c r="K10" s="14">
         <v>7377557.5</v>
       </c>
-      <c r="L10" s="18"/>
+      <c r="L10" s="17" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="11">
         <v>1120.0</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="14">
@@ -1368,28 +1395,34 @@
       <c r="E11" s="14">
         <v>1.24448503E7</v>
       </c>
-      <c r="F11" s="17"/>
+      <c r="F11" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="G11" s="14">
         <v>1.24448503E7</v>
       </c>
       <c r="H11" s="14">
         <v>1.24448503E7</v>
       </c>
-      <c r="I11" s="17"/>
+      <c r="I11" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="J11" s="14">
         <v>1.08331036E7</v>
       </c>
       <c r="K11" s="14">
         <v>1.08331036E7</v>
       </c>
-      <c r="L11" s="18"/>
+      <c r="L11" s="17" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="11">
         <v>1121.0</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="14">
@@ -1398,28 +1431,34 @@
       <c r="E12" s="14">
         <v>1.24448503E7</v>
       </c>
-      <c r="F12" s="17"/>
+      <c r="F12" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="G12" s="14">
         <v>1.24448503E7</v>
       </c>
       <c r="H12" s="14">
         <v>1.24448503E7</v>
       </c>
-      <c r="I12" s="17"/>
+      <c r="I12" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="J12" s="14">
         <v>1.08331036E7</v>
       </c>
       <c r="K12" s="14">
         <v>1.08331036E7</v>
       </c>
-      <c r="L12" s="18"/>
+      <c r="L12" s="17" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="11">
         <v>1130.0</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" s="16">
         <v>7145.0</v>
@@ -1430,28 +1469,34 @@
       <c r="E13" s="14">
         <v>3152541.3</v>
       </c>
-      <c r="F13" s="17"/>
+      <c r="F13" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="G13" s="14">
         <v>3196766.3</v>
       </c>
       <c r="H13" s="14">
         <v>3196766.3</v>
       </c>
-      <c r="I13" s="17"/>
+      <c r="I13" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="J13" s="14">
         <v>4546409.5</v>
       </c>
       <c r="K13" s="14">
         <v>3624003.1</v>
       </c>
-      <c r="L13" s="18"/>
+      <c r="L13" s="17" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="11">
         <v>11301.0</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="14">
@@ -1460,28 +1505,34 @@
       <c r="E14" s="14">
         <v>230000.0</v>
       </c>
-      <c r="F14" s="17"/>
+      <c r="F14" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="G14" s="14">
         <v>230000.0</v>
       </c>
       <c r="H14" s="14">
         <v>230000.0</v>
       </c>
-      <c r="I14" s="17"/>
+      <c r="I14" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="J14" s="14">
         <v>278788.8</v>
       </c>
       <c r="K14" s="14">
         <v>278788.8</v>
       </c>
-      <c r="L14" s="18"/>
+      <c r="L14" s="17" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="11">
         <v>11302.0</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="14">
@@ -1490,28 +1541,34 @@
       <c r="E15" s="14">
         <v>34620.0</v>
       </c>
-      <c r="F15" s="17"/>
+      <c r="F15" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="G15" s="14">
         <v>34620.0</v>
       </c>
       <c r="H15" s="14">
         <v>34620.0</v>
       </c>
-      <c r="I15" s="17"/>
+      <c r="I15" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="J15" s="14">
         <v>58572.7</v>
       </c>
       <c r="K15" s="14">
         <v>58572.7</v>
       </c>
-      <c r="L15" s="18"/>
+      <c r="L15" s="17" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="11">
         <v>11303.0</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" s="13"/>
       <c r="D16" s="14">
@@ -1520,28 +1577,34 @@
       <c r="E16" s="14">
         <v>17002.5</v>
       </c>
-      <c r="F16" s="17"/>
+      <c r="F16" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="G16" s="14">
         <v>17002.5</v>
       </c>
       <c r="H16" s="14">
         <v>17002.5</v>
       </c>
-      <c r="I16" s="17"/>
+      <c r="I16" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="J16" s="14">
         <v>17186.1</v>
       </c>
       <c r="K16" s="14">
         <v>17186.1</v>
       </c>
-      <c r="L16" s="18"/>
+      <c r="L16" s="17" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="11">
         <v>11304.0</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" s="13"/>
       <c r="D17" s="14">
@@ -1550,28 +1613,34 @@
       <c r="E17" s="14">
         <v>145800.0</v>
       </c>
-      <c r="F17" s="17"/>
+      <c r="F17" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="G17" s="14">
         <v>195600.0</v>
       </c>
       <c r="H17" s="14">
         <v>195600.0</v>
       </c>
-      <c r="I17" s="17"/>
+      <c r="I17" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="J17" s="14">
         <v>196539.2</v>
       </c>
       <c r="K17" s="14">
         <v>196539.2</v>
       </c>
-      <c r="L17" s="18"/>
+      <c r="L17" s="17" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="11">
         <v>11305.0</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C18" s="13"/>
       <c r="D18" s="14">
@@ -1580,28 +1649,34 @@
       <c r="E18" s="14">
         <v>47162.5</v>
       </c>
-      <c r="F18" s="17"/>
+      <c r="F18" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="G18" s="14">
         <v>47162.5</v>
       </c>
       <c r="H18" s="14">
         <v>47162.5</v>
       </c>
-      <c r="I18" s="17"/>
+      <c r="I18" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="J18" s="14">
         <v>972625.5</v>
       </c>
       <c r="K18" s="14">
         <v>50219.1</v>
       </c>
-      <c r="L18" s="18"/>
+      <c r="L18" s="17" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="11">
         <v>11306.0</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="14">
@@ -1610,28 +1685,34 @@
       <c r="E19" s="14">
         <v>48300.0</v>
       </c>
-      <c r="F19" s="17"/>
+      <c r="F19" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="G19" s="14">
         <v>48300.0</v>
       </c>
       <c r="H19" s="14">
         <v>48300.0</v>
       </c>
-      <c r="I19" s="17"/>
+      <c r="I19" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="J19" s="14">
         <v>52820.7</v>
       </c>
       <c r="K19" s="14">
         <v>52820.7</v>
       </c>
-      <c r="L19" s="18"/>
+      <c r="L19" s="17" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="11">
         <v>11307.0</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="14">
@@ -1640,28 +1721,34 @@
       <c r="E20" s="14">
         <v>564319.0</v>
       </c>
-      <c r="F20" s="17"/>
+      <c r="F20" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="G20" s="14">
         <v>560519.0</v>
       </c>
       <c r="H20" s="14">
         <v>560519.0</v>
       </c>
-      <c r="I20" s="17"/>
+      <c r="I20" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="J20" s="14">
         <v>616446.3</v>
       </c>
       <c r="K20" s="14">
         <v>616446.3</v>
       </c>
-      <c r="L20" s="18"/>
+      <c r="L20" s="17" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="11">
         <v>11308.0</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="14">
@@ -1670,28 +1757,34 @@
       <c r="E21" s="14">
         <v>144800.0</v>
       </c>
-      <c r="F21" s="17"/>
+      <c r="F21" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="G21" s="14">
         <v>144800.0</v>
       </c>
       <c r="H21" s="14">
         <v>144800.0</v>
       </c>
-      <c r="I21" s="17"/>
+      <c r="I21" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="J21" s="14">
         <v>181733.1</v>
       </c>
       <c r="K21" s="14">
         <v>181733.1</v>
       </c>
-      <c r="L21" s="18"/>
+      <c r="L21" s="17" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="11">
         <v>11309.0</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C22" s="13"/>
       <c r="D22" s="14">
@@ -1700,28 +1793,34 @@
       <c r="E22" s="14">
         <v>138607.6</v>
       </c>
-      <c r="F22" s="17"/>
+      <c r="F22" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="G22" s="14">
         <v>138607.6</v>
       </c>
       <c r="H22" s="14">
         <v>138607.6</v>
       </c>
-      <c r="I22" s="17"/>
+      <c r="I22" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="J22" s="14">
         <v>174446.1</v>
       </c>
       <c r="K22" s="14">
         <v>174446.1</v>
       </c>
-      <c r="L22" s="18"/>
+      <c r="L22" s="17" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="11">
         <v>11310.0</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="14">
@@ -1730,28 +1829,34 @@
       <c r="E23" s="14">
         <v>206127.2</v>
       </c>
-      <c r="F23" s="17"/>
+      <c r="F23" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="G23" s="14">
         <v>206127.2</v>
       </c>
       <c r="H23" s="14">
         <v>206127.2</v>
       </c>
-      <c r="I23" s="17"/>
+      <c r="I23" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="J23" s="14">
         <v>253489.4</v>
       </c>
       <c r="K23" s="14">
         <v>253489.4</v>
       </c>
-      <c r="L23" s="18"/>
+      <c r="L23" s="17" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="11">
         <v>11311.0</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C24" s="13"/>
       <c r="D24" s="14">
@@ -1760,28 +1865,34 @@
       <c r="E24" s="14">
         <v>275.0</v>
       </c>
-      <c r="F24" s="17"/>
+      <c r="F24" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="G24" s="14">
         <v>0.0</v>
       </c>
       <c r="H24" s="14">
         <v>0.0</v>
       </c>
-      <c r="I24" s="17"/>
+      <c r="I24" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="J24" s="14">
         <v>65.0</v>
       </c>
       <c r="K24" s="14">
         <v>65.0</v>
       </c>
-      <c r="L24" s="18"/>
+      <c r="L24" s="17" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="11">
         <v>11312.0</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="14">
@@ -1790,28 +1901,34 @@
       <c r="E25" s="14">
         <v>1444500.0</v>
       </c>
-      <c r="F25" s="17"/>
+      <c r="F25" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="G25" s="14">
         <v>1444500.0</v>
       </c>
       <c r="H25" s="14">
         <v>1444500.0</v>
       </c>
-      <c r="I25" s="17"/>
+      <c r="I25" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="J25" s="14">
         <v>1691798.9</v>
       </c>
       <c r="K25" s="14">
         <v>1691798.9</v>
       </c>
-      <c r="L25" s="18"/>
+      <c r="L25" s="17" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="11">
         <v>11313.0</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C26" s="13"/>
       <c r="D26" s="14">
@@ -1820,28 +1937,34 @@
       <c r="E26" s="14">
         <v>77400.0</v>
       </c>
-      <c r="F26" s="17"/>
+      <c r="F26" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="G26" s="14">
         <v>77400.0</v>
       </c>
       <c r="H26" s="14">
         <v>77400.0</v>
       </c>
-      <c r="I26" s="17"/>
+      <c r="I26" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="J26" s="14">
         <v>11930.0</v>
       </c>
       <c r="K26" s="14">
         <v>11930.0</v>
       </c>
-      <c r="L26" s="18"/>
+      <c r="L26" s="17" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="11">
         <v>11314.0</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="14">
@@ -1850,28 +1973,34 @@
       <c r="E27" s="14">
         <v>340.0</v>
       </c>
-      <c r="F27" s="17"/>
+      <c r="F27" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="G27" s="14">
         <v>340.0</v>
       </c>
       <c r="H27" s="14">
         <v>340.0</v>
       </c>
-      <c r="I27" s="17"/>
+      <c r="I27" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="J27" s="14">
         <v>15.0</v>
       </c>
       <c r="K27" s="14">
         <v>15.0</v>
       </c>
-      <c r="L27" s="18"/>
+      <c r="L27" s="17" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="11">
         <v>11315.0</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C28" s="13"/>
       <c r="D28" s="14">
@@ -1880,28 +2009,34 @@
       <c r="E28" s="14">
         <v>0.0</v>
       </c>
-      <c r="F28" s="17"/>
+      <c r="F28" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="G28" s="14">
         <v>34500.0</v>
       </c>
       <c r="H28" s="14">
         <v>34500.0</v>
       </c>
-      <c r="I28" s="17"/>
+      <c r="I28" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="J28" s="14">
         <v>34507.1</v>
       </c>
       <c r="K28" s="14">
         <v>34507.1</v>
       </c>
-      <c r="L28" s="18"/>
+      <c r="L28" s="17" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="11">
         <v>11316.0</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C29" s="13"/>
       <c r="D29" s="14">
@@ -1910,28 +2045,34 @@
       <c r="E29" s="14">
         <v>0.0</v>
       </c>
-      <c r="F29" s="17"/>
+      <c r="F29" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="G29" s="14">
         <v>0.0</v>
       </c>
       <c r="H29" s="14">
         <v>0.0</v>
       </c>
-      <c r="I29" s="17"/>
+      <c r="I29" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="J29" s="14">
         <v>0.0</v>
       </c>
       <c r="K29" s="14">
         <v>0.0</v>
       </c>
-      <c r="L29" s="18"/>
+      <c r="L29" s="17" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="11">
         <v>11317.0</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C30" s="13"/>
       <c r="D30" s="14">
@@ -1940,28 +2081,34 @@
       <c r="E30" s="14">
         <v>0.0</v>
       </c>
-      <c r="F30" s="17"/>
+      <c r="F30" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="G30" s="14">
         <v>300.0</v>
       </c>
       <c r="H30" s="14">
         <v>300.0</v>
       </c>
-      <c r="I30" s="17"/>
+      <c r="I30" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="J30" s="14">
         <v>50.8</v>
       </c>
       <c r="K30" s="14">
         <v>50.8</v>
       </c>
-      <c r="L30" s="18"/>
+      <c r="L30" s="17" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="11">
         <v>11318.0</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C31" s="13"/>
       <c r="D31" s="14">
@@ -1970,28 +2117,34 @@
       <c r="E31" s="14">
         <v>0.0</v>
       </c>
-      <c r="F31" s="17"/>
+      <c r="F31" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="G31" s="14">
         <v>11250.0</v>
       </c>
       <c r="H31" s="14">
         <v>11250.0</v>
       </c>
-      <c r="I31" s="17"/>
+      <c r="I31" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="J31" s="14">
         <v>3300.0</v>
       </c>
       <c r="K31" s="14">
         <v>3300.0</v>
       </c>
-      <c r="L31" s="18"/>
+      <c r="L31" s="17" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="11">
         <v>11319.0</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C32" s="13"/>
       <c r="D32" s="14">
@@ -2000,28 +2153,34 @@
       <c r="E32" s="14">
         <v>53287.5</v>
       </c>
-      <c r="F32" s="17"/>
+      <c r="F32" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="G32" s="14">
         <v>5737.5</v>
       </c>
       <c r="H32" s="14">
         <v>5737.5</v>
       </c>
-      <c r="I32" s="17"/>
+      <c r="I32" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="J32" s="14">
         <v>2095.0</v>
       </c>
       <c r="K32" s="14">
         <v>2095.0</v>
       </c>
-      <c r="L32" s="18"/>
+      <c r="L32" s="17" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="11">
         <v>1140.0</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C33" s="16">
         <v>7146.0</v>
@@ -2032,28 +2191,34 @@
       <c r="E33" s="14">
         <v>460000.0</v>
       </c>
-      <c r="F33" s="17"/>
+      <c r="F33" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="G33" s="14">
         <v>460000.0</v>
       </c>
       <c r="H33" s="14">
         <v>460000.0</v>
       </c>
-      <c r="I33" s="17"/>
+      <c r="I33" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="J33" s="14">
         <v>761697.2</v>
       </c>
       <c r="K33" s="14">
         <v>761697.2</v>
       </c>
-      <c r="L33" s="18"/>
+      <c r="L33" s="17" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="11">
         <v>1141.0</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="14">
@@ -2062,28 +2227,34 @@
       <c r="E34" s="14">
         <v>80000.0</v>
       </c>
-      <c r="F34" s="17"/>
+      <c r="F34" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="G34" s="14">
         <v>80000.0</v>
       </c>
       <c r="H34" s="14">
         <v>80000.0</v>
       </c>
-      <c r="I34" s="17"/>
+      <c r="I34" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="J34" s="14">
         <v>134926.8</v>
       </c>
       <c r="K34" s="14">
         <v>134926.8</v>
       </c>
-      <c r="L34" s="18"/>
+      <c r="L34" s="17" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="11">
         <v>1142.0</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C35" s="13"/>
       <c r="D35" s="14">
@@ -2092,28 +2263,34 @@
       <c r="E35" s="14">
         <v>380000.0</v>
       </c>
-      <c r="F35" s="17"/>
+      <c r="F35" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="G35" s="14">
         <v>380000.0</v>
       </c>
       <c r="H35" s="14">
         <v>380000.0</v>
       </c>
-      <c r="I35" s="17"/>
+      <c r="I35" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="J35" s="14">
         <v>626770.4</v>
       </c>
       <c r="K35" s="14">
         <v>626770.4</v>
       </c>
-      <c r="L35" s="18"/>
+      <c r="L35" s="17" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="11">
         <v>1150.0</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C36" s="16">
         <v>7161.0</v>
@@ -2124,28 +2301,34 @@
       <c r="E36" s="14">
         <v>0.0</v>
       </c>
-      <c r="F36" s="17"/>
+      <c r="F36" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="G36" s="14">
         <v>0.0</v>
       </c>
       <c r="H36" s="14">
         <v>0.0</v>
       </c>
-      <c r="I36" s="17"/>
+      <c r="I36" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="J36" s="14">
         <v>0.0</v>
       </c>
       <c r="K36" s="14">
         <v>0.0</v>
       </c>
-      <c r="L36" s="18"/>
+      <c r="L36" s="17" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="11">
         <v>1151.0</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C37" s="13"/>
       <c r="D37" s="14">
@@ -2154,28 +2337,34 @@
       <c r="E37" s="14">
         <v>0.0</v>
       </c>
-      <c r="F37" s="17"/>
+      <c r="F37" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="G37" s="14">
         <v>0.0</v>
       </c>
       <c r="H37" s="14">
         <v>0.0</v>
       </c>
-      <c r="I37" s="17"/>
+      <c r="I37" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="J37" s="14">
         <v>0.0</v>
       </c>
       <c r="K37" s="14">
         <v>0.0</v>
       </c>
-      <c r="L37" s="18"/>
+      <c r="L37" s="17" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="11">
         <v>1152.0</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C38" s="13"/>
       <c r="D38" s="14">
@@ -2184,28 +2373,34 @@
       <c r="E38" s="14">
         <v>0.0</v>
       </c>
-      <c r="F38" s="17"/>
+      <c r="F38" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="G38" s="14">
         <v>0.0</v>
       </c>
       <c r="H38" s="14">
         <v>0.0</v>
       </c>
-      <c r="I38" s="17"/>
+      <c r="I38" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="J38" s="14">
         <v>0.0</v>
       </c>
       <c r="K38" s="14">
         <v>0.0</v>
       </c>
-      <c r="L38" s="18"/>
+      <c r="L38" s="17" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="11">
         <v>1153.0</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C39" s="13"/>
       <c r="D39" s="14">
@@ -2214,28 +2409,34 @@
       <c r="E39" s="14">
         <v>0.0</v>
       </c>
-      <c r="F39" s="17"/>
+      <c r="F39" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="G39" s="14">
         <v>0.0</v>
       </c>
       <c r="H39" s="14">
         <v>0.0</v>
       </c>
-      <c r="I39" s="17"/>
+      <c r="I39" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="J39" s="14">
         <v>0.0</v>
       </c>
       <c r="K39" s="14">
         <v>0.0</v>
       </c>
-      <c r="L39" s="18"/>
+      <c r="L39" s="17" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="11">
         <v>1154.0</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C40" s="13"/>
       <c r="D40" s="14">
@@ -2244,28 +2445,34 @@
       <c r="E40" s="14">
         <v>0.0</v>
       </c>
-      <c r="F40" s="17"/>
+      <c r="F40" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="G40" s="14">
         <v>0.0</v>
       </c>
       <c r="H40" s="14">
         <v>0.0</v>
       </c>
-      <c r="I40" s="17"/>
+      <c r="I40" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="J40" s="14">
         <v>0.0</v>
       </c>
       <c r="K40" s="14">
         <v>0.0</v>
       </c>
-      <c r="L40" s="18"/>
+      <c r="L40" s="17" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="11">
         <v>1155.0</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C41" s="13"/>
       <c r="D41" s="14">
@@ -2274,28 +2481,34 @@
       <c r="E41" s="14">
         <v>0.0</v>
       </c>
-      <c r="F41" s="17"/>
+      <c r="F41" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="G41" s="14">
         <v>0.0</v>
       </c>
       <c r="H41" s="14">
         <v>0.0</v>
       </c>
-      <c r="I41" s="17"/>
+      <c r="I41" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="J41" s="14">
         <v>0.0</v>
       </c>
       <c r="K41" s="14">
         <v>0.0</v>
       </c>
-      <c r="L41" s="18"/>
+      <c r="L41" s="17" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="11">
         <v>1200.0</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C42" s="16">
         <v>7300.0</v>
@@ -2333,7 +2546,7 @@
         <v>1210.0</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C43" s="16">
         <v>7311.0</v>
@@ -2344,28 +2557,34 @@
       <c r="E43" s="14">
         <v>0.0</v>
       </c>
-      <c r="F43" s="17"/>
+      <c r="F43" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="G43" s="14">
         <v>0.0</v>
       </c>
       <c r="H43" s="14">
         <v>0.0</v>
       </c>
-      <c r="I43" s="17"/>
+      <c r="I43" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="J43" s="14">
         <v>0.0</v>
       </c>
       <c r="K43" s="14">
         <v>0.0</v>
       </c>
-      <c r="L43" s="18"/>
+      <c r="L43" s="17" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="11">
         <v>1211.0</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C44" s="13"/>
       <c r="D44" s="14">
@@ -2374,28 +2593,34 @@
       <c r="E44" s="14">
         <v>0.0</v>
       </c>
-      <c r="F44" s="17"/>
+      <c r="F44" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="G44" s="14">
         <v>0.0</v>
       </c>
       <c r="H44" s="14">
         <v>0.0</v>
       </c>
-      <c r="I44" s="17"/>
+      <c r="I44" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="J44" s="14">
         <v>0.0</v>
       </c>
       <c r="K44" s="14">
         <v>0.0</v>
       </c>
-      <c r="L44" s="18"/>
+      <c r="L44" s="17" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="11">
         <v>1220.0</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C45" s="16">
         <v>7312.0</v>
@@ -2403,21 +2628,27 @@
       <c r="D45" s="14">
         <v>0.0</v>
       </c>
-      <c r="E45" s="17"/>
+      <c r="E45" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="F45" s="14">
         <v>0.0</v>
       </c>
       <c r="G45" s="14">
         <v>0.0</v>
       </c>
-      <c r="H45" s="17"/>
+      <c r="H45" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="I45" s="14">
         <v>0.0</v>
       </c>
       <c r="J45" s="14">
         <v>0.0</v>
       </c>
-      <c r="K45" s="17"/>
+      <c r="K45" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="L45" s="15">
         <v>0.0</v>
       </c>
@@ -2427,27 +2658,33 @@
         <v>1221.0</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C46" s="13"/>
       <c r="D46" s="14">
         <v>0.0</v>
       </c>
-      <c r="E46" s="17"/>
+      <c r="E46" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="F46" s="14">
         <v>0.0</v>
       </c>
       <c r="G46" s="14">
         <v>0.0</v>
       </c>
-      <c r="H46" s="17"/>
+      <c r="H46" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="I46" s="14">
         <v>0.0</v>
       </c>
       <c r="J46" s="14">
         <v>0.0</v>
       </c>
-      <c r="K46" s="17"/>
+      <c r="K46" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="L46" s="15">
         <v>0.0</v>
       </c>
@@ -2457,7 +2694,7 @@
         <v>1230.0</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C47" s="16">
         <v>7321.0</v>
@@ -2468,28 +2705,34 @@
       <c r="E47" s="14">
         <v>1295095.3</v>
       </c>
-      <c r="F47" s="17"/>
+      <c r="F47" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="G47" s="14">
         <v>362254.6</v>
       </c>
       <c r="H47" s="14">
         <v>362254.6</v>
       </c>
-      <c r="I47" s="17"/>
+      <c r="I47" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="J47" s="14">
         <v>362254.6</v>
       </c>
       <c r="K47" s="14">
         <v>362254.6</v>
       </c>
-      <c r="L47" s="18"/>
+      <c r="L47" s="17" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="11">
         <v>1231.0</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C48" s="13"/>
       <c r="D48" s="14">
@@ -2498,28 +2741,34 @@
       <c r="E48" s="14">
         <v>1295095.3</v>
       </c>
-      <c r="F48" s="17"/>
+      <c r="F48" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="G48" s="14">
         <v>362254.6</v>
       </c>
       <c r="H48" s="14">
         <v>362254.6</v>
       </c>
-      <c r="I48" s="17"/>
+      <c r="I48" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="J48" s="14">
         <v>362254.6</v>
       </c>
       <c r="K48" s="14">
         <v>362254.6</v>
       </c>
-      <c r="L48" s="18"/>
+      <c r="L48" s="17" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="11">
         <v>1240.0</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C49" s="16">
         <v>7322.0</v>
@@ -2527,21 +2776,27 @@
       <c r="D49" s="14">
         <v>712950.1</v>
       </c>
-      <c r="E49" s="17"/>
+      <c r="E49" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="F49" s="14">
         <v>712950.1</v>
       </c>
       <c r="G49" s="14">
         <v>712950.1</v>
       </c>
-      <c r="H49" s="17"/>
+      <c r="H49" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="I49" s="14">
         <v>712950.1</v>
       </c>
       <c r="J49" s="14">
         <v>591657.0</v>
       </c>
-      <c r="K49" s="17"/>
+      <c r="K49" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="L49" s="15">
         <v>591657.0</v>
       </c>
@@ -2551,27 +2806,33 @@
         <v>1241.0</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C50" s="13"/>
       <c r="D50" s="14">
         <v>712950.1</v>
       </c>
-      <c r="E50" s="17"/>
+      <c r="E50" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="F50" s="14">
         <v>712950.1</v>
       </c>
       <c r="G50" s="14">
         <v>712950.1</v>
       </c>
-      <c r="H50" s="17"/>
+      <c r="H50" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="I50" s="14">
         <v>712950.1</v>
       </c>
       <c r="J50" s="14">
         <v>591657.0</v>
       </c>
-      <c r="K50" s="17"/>
+      <c r="K50" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="L50" s="15">
         <v>591657.0</v>
       </c>
@@ -2581,7 +2842,7 @@
         <v>1250.0</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C51" s="16">
         <v>7331.0</v>
@@ -2592,28 +2853,34 @@
       <c r="E51" s="14">
         <v>2.00265998E7</v>
       </c>
-      <c r="F51" s="17"/>
+      <c r="F51" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="G51" s="14">
         <v>2.08353534E7</v>
       </c>
       <c r="H51" s="14">
         <v>2.08353534E7</v>
       </c>
-      <c r="I51" s="17"/>
+      <c r="I51" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="J51" s="14">
         <v>2.06672939E7</v>
       </c>
       <c r="K51" s="14">
         <v>2.06672939E7</v>
       </c>
-      <c r="L51" s="18"/>
+      <c r="L51" s="17" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="11">
         <v>1251.0</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C52" s="13"/>
       <c r="D52" s="14">
@@ -2622,28 +2889,34 @@
       <c r="E52" s="14">
         <v>1.34303551E7</v>
       </c>
-      <c r="F52" s="17"/>
+      <c r="F52" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="G52" s="14">
         <v>1.34303551E7</v>
       </c>
       <c r="H52" s="14">
         <v>1.34303551E7</v>
       </c>
-      <c r="I52" s="17"/>
+      <c r="I52" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="J52" s="14">
         <v>1.34303551E7</v>
       </c>
       <c r="K52" s="14">
         <v>1.34303551E7</v>
       </c>
-      <c r="L52" s="18"/>
+      <c r="L52" s="17" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="11">
         <v>1252.0</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C53" s="13"/>
       <c r="D53" s="14">
@@ -2652,28 +2925,34 @@
       <c r="E53" s="14">
         <v>0.0</v>
       </c>
-      <c r="F53" s="17"/>
+      <c r="F53" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="G53" s="14">
         <v>0.0</v>
       </c>
       <c r="H53" s="14">
         <v>0.0</v>
       </c>
-      <c r="I53" s="17"/>
+      <c r="I53" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="J53" s="14">
         <v>0.0</v>
       </c>
       <c r="K53" s="14">
         <v>0.0</v>
       </c>
-      <c r="L53" s="18"/>
+      <c r="L53" s="17" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="11">
         <v>1253.0</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C54" s="13"/>
       <c r="D54" s="14">
@@ -2682,28 +2961,34 @@
       <c r="E54" s="14">
         <v>0.0</v>
       </c>
-      <c r="F54" s="17"/>
+      <c r="F54" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="G54" s="14">
         <v>0.0</v>
       </c>
       <c r="H54" s="14">
         <v>0.0</v>
       </c>
-      <c r="I54" s="17"/>
+      <c r="I54" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="J54" s="14">
         <v>0.0</v>
       </c>
       <c r="K54" s="14">
         <v>0.0</v>
       </c>
-      <c r="L54" s="18"/>
+      <c r="L54" s="17" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="11">
         <v>1254.0</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C55" s="13"/>
       <c r="D55" s="14">
@@ -2712,28 +2997,34 @@
       <c r="E55" s="14">
         <v>0.0</v>
       </c>
-      <c r="F55" s="17"/>
+      <c r="F55" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="G55" s="14">
         <v>0.0</v>
       </c>
       <c r="H55" s="14">
         <v>0.0</v>
       </c>
-      <c r="I55" s="17"/>
+      <c r="I55" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="J55" s="14">
         <v>0.0</v>
       </c>
       <c r="K55" s="14">
         <v>0.0</v>
       </c>
-      <c r="L55" s="18"/>
+      <c r="L55" s="17" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="11">
         <v>1255.0</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C56" s="13"/>
       <c r="D56" s="14">
@@ -2742,28 +3033,34 @@
       <c r="E56" s="14">
         <v>6596244.7</v>
       </c>
-      <c r="F56" s="17"/>
+      <c r="F56" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="G56" s="14">
         <v>7404998.3</v>
       </c>
       <c r="H56" s="14">
         <v>7404998.3</v>
       </c>
-      <c r="I56" s="17"/>
+      <c r="I56" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="J56" s="14">
         <v>7236938.8</v>
       </c>
       <c r="K56" s="14">
         <v>7236938.8</v>
       </c>
-      <c r="L56" s="18"/>
+      <c r="L56" s="17" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="11">
         <v>1256.0</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C57" s="13"/>
       <c r="D57" s="14">
@@ -2772,28 +3069,34 @@
       <c r="E57" s="14">
         <v>0.0</v>
       </c>
-      <c r="F57" s="17"/>
+      <c r="F57" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="G57" s="14">
         <v>0.0</v>
       </c>
       <c r="H57" s="14">
         <v>0.0</v>
       </c>
-      <c r="I57" s="17"/>
+      <c r="I57" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="J57" s="14">
         <v>0.0</v>
       </c>
       <c r="K57" s="14">
         <v>0.0</v>
       </c>
-      <c r="L57" s="18"/>
+      <c r="L57" s="17" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="11">
         <v>1260.0</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C58" s="16">
         <v>7332.0</v>
@@ -2801,21 +3104,27 @@
       <c r="D58" s="14">
         <v>415000.0</v>
       </c>
-      <c r="E58" s="17"/>
+      <c r="E58" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="F58" s="14">
         <v>415000.0</v>
       </c>
       <c r="G58" s="14">
         <v>419000.0</v>
       </c>
-      <c r="H58" s="17"/>
+      <c r="H58" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="I58" s="14">
         <v>419000.0</v>
       </c>
       <c r="J58" s="14">
         <v>407992.4</v>
       </c>
-      <c r="K58" s="17"/>
+      <c r="K58" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="L58" s="15">
         <v>407992.4</v>
       </c>
@@ -2825,27 +3134,33 @@
         <v>1261.0</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C59" s="13"/>
       <c r="D59" s="14">
         <v>415000.0</v>
       </c>
-      <c r="E59" s="17"/>
+      <c r="E59" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="F59" s="14">
         <v>415000.0</v>
       </c>
       <c r="G59" s="14">
         <v>419000.0</v>
       </c>
-      <c r="H59" s="17"/>
+      <c r="H59" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="I59" s="14">
         <v>419000.0</v>
       </c>
       <c r="J59" s="14">
         <v>407992.4</v>
       </c>
-      <c r="K59" s="17"/>
+      <c r="K59" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="L59" s="15">
         <v>407992.4</v>
       </c>
@@ -2855,27 +3170,33 @@
         <v>1262.0</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C60" s="13"/>
       <c r="D60" s="14">
         <v>0.0</v>
       </c>
-      <c r="E60" s="17"/>
+      <c r="E60" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="F60" s="14">
         <v>0.0</v>
       </c>
       <c r="G60" s="14">
         <v>0.0</v>
       </c>
-      <c r="H60" s="17"/>
+      <c r="H60" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="I60" s="14">
         <v>0.0</v>
       </c>
       <c r="J60" s="14">
         <v>0.0</v>
       </c>
-      <c r="K60" s="17"/>
+      <c r="K60" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="L60" s="15">
         <v>0.0</v>
       </c>
@@ -2885,7 +3206,7 @@
         <v>1300.0</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C61" s="16">
         <v>7400.0</v>
@@ -2923,7 +3244,7 @@
         <v>1310.0</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C62" s="16">
         <v>7411.0</v>
@@ -2931,21 +3252,27 @@
       <c r="D62" s="14">
         <v>0.0</v>
       </c>
-      <c r="E62" s="17"/>
+      <c r="E62" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="F62" s="14">
         <v>0.0</v>
       </c>
       <c r="G62" s="14">
         <v>0.0</v>
       </c>
-      <c r="H62" s="17"/>
+      <c r="H62" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="I62" s="14">
         <v>0.0</v>
       </c>
       <c r="J62" s="14">
         <v>0.0</v>
       </c>
-      <c r="K62" s="17"/>
+      <c r="K62" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="L62" s="15">
         <v>0.0</v>
       </c>
@@ -2955,27 +3282,33 @@
         <v>1311.0</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C63" s="13"/>
       <c r="D63" s="14">
         <v>0.0</v>
       </c>
-      <c r="E63" s="17"/>
+      <c r="E63" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="F63" s="14">
         <v>0.0</v>
       </c>
       <c r="G63" s="14">
         <v>0.0</v>
       </c>
-      <c r="H63" s="17"/>
+      <c r="H63" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="I63" s="14">
         <v>0.0</v>
       </c>
       <c r="J63" s="14">
         <v>0.0</v>
       </c>
-      <c r="K63" s="17"/>
+      <c r="K63" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="L63" s="15">
         <v>0.0</v>
       </c>
@@ -2985,7 +3318,7 @@
         <v>1320.0</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C64" s="16">
         <v>7412.0</v>
@@ -2996,28 +3329,34 @@
       <c r="E64" s="14">
         <v>81472.0</v>
       </c>
-      <c r="F64" s="17"/>
+      <c r="F64" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="G64" s="14">
         <v>81472.0</v>
       </c>
       <c r="H64" s="14">
         <v>81472.0</v>
       </c>
-      <c r="I64" s="17"/>
+      <c r="I64" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="J64" s="14">
         <v>233666.7</v>
       </c>
       <c r="K64" s="14">
         <v>233666.7</v>
       </c>
-      <c r="L64" s="18"/>
+      <c r="L64" s="17" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="11">
         <v>1321.0</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C65" s="13"/>
       <c r="D65" s="14">
@@ -3026,28 +3365,34 @@
       <c r="E65" s="14">
         <v>81472.0</v>
       </c>
-      <c r="F65" s="17"/>
+      <c r="F65" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="G65" s="14">
         <v>81472.0</v>
       </c>
       <c r="H65" s="14">
         <v>81472.0</v>
       </c>
-      <c r="I65" s="17"/>
+      <c r="I65" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="J65" s="14">
         <v>233666.7</v>
       </c>
       <c r="K65" s="14">
         <v>233666.7</v>
       </c>
-      <c r="L65" s="18"/>
+      <c r="L65" s="17" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="11">
         <v>1330.0</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C66" s="16">
         <v>7415.0</v>
@@ -3058,28 +3403,34 @@
       <c r="E66" s="14">
         <v>1563977.2</v>
       </c>
-      <c r="F66" s="17"/>
+      <c r="F66" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="G66" s="14">
         <v>1505329.9</v>
       </c>
       <c r="H66" s="14">
         <v>1505329.9</v>
       </c>
-      <c r="I66" s="17"/>
+      <c r="I66" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="J66" s="14">
         <v>1590667.9</v>
       </c>
       <c r="K66" s="14">
         <v>1590667.9</v>
       </c>
-      <c r="L66" s="18"/>
+      <c r="L66" s="17" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="11">
         <v>1331.0</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C67" s="13"/>
       <c r="D67" s="14">
@@ -3088,28 +3439,34 @@
       <c r="E67" s="14">
         <v>1085067.1</v>
       </c>
-      <c r="F67" s="17"/>
+      <c r="F67" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="G67" s="14">
         <v>1026419.8</v>
       </c>
       <c r="H67" s="14">
         <v>1026419.8</v>
       </c>
-      <c r="I67" s="17"/>
+      <c r="I67" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="J67" s="14">
         <v>1209028.7</v>
       </c>
       <c r="K67" s="14">
         <v>1209028.7</v>
       </c>
-      <c r="L67" s="18"/>
+      <c r="L67" s="17" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="11">
         <v>1332.0</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C68" s="13"/>
       <c r="D68" s="14">
@@ -3118,28 +3475,34 @@
       <c r="E68" s="14">
         <v>0.0</v>
       </c>
-      <c r="F68" s="17"/>
+      <c r="F68" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="G68" s="14">
         <v>0.0</v>
       </c>
       <c r="H68" s="14">
         <v>0.0</v>
       </c>
-      <c r="I68" s="17"/>
+      <c r="I68" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="J68" s="14">
         <v>0.0</v>
       </c>
       <c r="K68" s="14">
         <v>0.0</v>
       </c>
-      <c r="L68" s="18"/>
+      <c r="L68" s="17" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="11">
         <v>1333.0</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C69" s="13"/>
       <c r="D69" s="14">
@@ -3148,28 +3511,34 @@
       <c r="E69" s="14">
         <v>157673.6</v>
       </c>
-      <c r="F69" s="17"/>
+      <c r="F69" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="G69" s="14">
         <v>157673.6</v>
       </c>
       <c r="H69" s="14">
         <v>157673.6</v>
       </c>
-      <c r="I69" s="17"/>
+      <c r="I69" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="J69" s="14">
         <v>172476.2</v>
       </c>
       <c r="K69" s="14">
         <v>172476.2</v>
       </c>
-      <c r="L69" s="18"/>
+      <c r="L69" s="17" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="11">
         <v>1334.0</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C70" s="13"/>
       <c r="D70" s="14">
@@ -3178,28 +3547,34 @@
       <c r="E70" s="14">
         <v>321236.5</v>
       </c>
-      <c r="F70" s="17"/>
+      <c r="F70" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="G70" s="14">
         <v>321236.5</v>
       </c>
       <c r="H70" s="14">
         <v>321236.5</v>
       </c>
-      <c r="I70" s="17"/>
+      <c r="I70" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="J70" s="14">
         <v>209163.0</v>
       </c>
       <c r="K70" s="14">
         <v>209163.0</v>
       </c>
-      <c r="L70" s="18"/>
+      <c r="L70" s="17" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="11">
         <v>1340.0</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C71" s="16">
         <v>7421.0</v>
@@ -3210,28 +3585,34 @@
       <c r="E71" s="14">
         <v>3.7571925E7</v>
       </c>
-      <c r="F71" s="17"/>
+      <c r="F71" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="G71" s="14">
         <v>3.05877425E7</v>
       </c>
       <c r="H71" s="14">
         <v>3.05877425E7</v>
       </c>
-      <c r="I71" s="17"/>
+      <c r="I71" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="J71" s="14">
         <v>2.87932154E7</v>
       </c>
       <c r="K71" s="14">
         <v>2.87932154E7</v>
       </c>
-      <c r="L71" s="18"/>
+      <c r="L71" s="17" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="11">
         <v>1341.0</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C72" s="13"/>
       <c r="D72" s="14">
@@ -3240,28 +3621,34 @@
       <c r="E72" s="14">
         <v>0.0</v>
       </c>
-      <c r="F72" s="17"/>
+      <c r="F72" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="G72" s="14">
         <v>0.0</v>
       </c>
       <c r="H72" s="14">
         <v>0.0</v>
       </c>
-      <c r="I72" s="17"/>
+      <c r="I72" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="J72" s="14">
         <v>0.0</v>
       </c>
       <c r="K72" s="14">
         <v>0.0</v>
       </c>
-      <c r="L72" s="18"/>
+      <c r="L72" s="17" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="11">
         <v>1342.0</v>
       </c>
       <c r="B73" s="12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C73" s="13"/>
       <c r="D73" s="14">
@@ -3270,28 +3657,34 @@
       <c r="E73" s="14">
         <v>3.7571925E7</v>
       </c>
-      <c r="F73" s="17"/>
+      <c r="F73" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="G73" s="14">
         <v>3.05877425E7</v>
       </c>
       <c r="H73" s="14">
         <v>3.05877425E7</v>
       </c>
-      <c r="I73" s="17"/>
+      <c r="I73" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="J73" s="14">
         <v>2.87616056E7</v>
       </c>
       <c r="K73" s="14">
         <v>2.87616056E7</v>
       </c>
-      <c r="L73" s="18"/>
+      <c r="L73" s="17" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="11">
         <v>1343.0</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C74" s="13"/>
       <c r="D74" s="14">
@@ -3300,28 +3693,34 @@
       <c r="E74" s="14">
         <v>0.0</v>
       </c>
-      <c r="F74" s="17"/>
+      <c r="F74" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="G74" s="14">
         <v>0.0</v>
       </c>
       <c r="H74" s="14">
         <v>0.0</v>
       </c>
-      <c r="I74" s="17"/>
+      <c r="I74" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="J74" s="14">
         <v>31609.9</v>
       </c>
       <c r="K74" s="14">
         <v>31609.9</v>
       </c>
-      <c r="L74" s="18"/>
+      <c r="L74" s="17" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="11">
         <v>1350.0</v>
       </c>
       <c r="B75" s="12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C75" s="16">
         <v>7422.0</v>
@@ -3332,28 +3731,34 @@
       <c r="E75" s="14">
         <v>6209429.1</v>
       </c>
-      <c r="F75" s="17"/>
+      <c r="F75" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="G75" s="14">
         <v>6241510.7</v>
       </c>
       <c r="H75" s="14">
         <v>6241510.7</v>
       </c>
-      <c r="I75" s="17"/>
+      <c r="I75" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="J75" s="14">
         <v>6701017.8</v>
       </c>
       <c r="K75" s="14">
         <v>6701017.8</v>
       </c>
-      <c r="L75" s="18"/>
+      <c r="L75" s="17" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="11">
         <v>1351.0</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C76" s="13"/>
       <c r="D76" s="14">
@@ -3362,28 +3767,34 @@
       <c r="E76" s="14">
         <v>6009429.1</v>
       </c>
-      <c r="F76" s="17"/>
+      <c r="F76" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="G76" s="14">
         <v>6041510.7</v>
       </c>
       <c r="H76" s="14">
         <v>6041510.7</v>
       </c>
-      <c r="I76" s="17"/>
+      <c r="I76" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="J76" s="14">
         <v>5635005.6</v>
       </c>
       <c r="K76" s="14">
         <v>5635005.6</v>
       </c>
-      <c r="L76" s="18"/>
+      <c r="L76" s="17" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="11">
         <v>13501.0</v>
       </c>
       <c r="B77" s="12" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C77" s="13"/>
       <c r="D77" s="14">
@@ -3392,28 +3803,34 @@
       <c r="E77" s="14">
         <v>0.0</v>
       </c>
-      <c r="F77" s="17"/>
+      <c r="F77" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="G77" s="14">
         <v>3000.0</v>
       </c>
       <c r="H77" s="14">
         <v>3000.0</v>
       </c>
-      <c r="I77" s="17"/>
+      <c r="I77" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="J77" s="14">
         <v>0.0</v>
       </c>
       <c r="K77" s="14">
         <v>0.0</v>
       </c>
-      <c r="L77" s="18"/>
+      <c r="L77" s="17" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="11">
         <v>13502.0</v>
       </c>
       <c r="B78" s="12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C78" s="13"/>
       <c r="D78" s="14">
@@ -3422,28 +3839,34 @@
       <c r="E78" s="14">
         <v>0.0</v>
       </c>
-      <c r="F78" s="17"/>
+      <c r="F78" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="G78" s="14">
         <v>101000.0</v>
       </c>
       <c r="H78" s="14">
         <v>101000.0</v>
       </c>
-      <c r="I78" s="17"/>
+      <c r="I78" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="J78" s="14">
         <v>88401.2</v>
       </c>
       <c r="K78" s="14">
         <v>88401.2</v>
       </c>
-      <c r="L78" s="18"/>
+      <c r="L78" s="17" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="11">
         <v>13503.0</v>
       </c>
       <c r="B79" s="12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C79" s="13"/>
       <c r="D79" s="14">
@@ -3452,28 +3875,34 @@
       <c r="E79" s="14">
         <v>151000.0</v>
       </c>
-      <c r="F79" s="17"/>
+      <c r="F79" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="G79" s="14">
         <v>50000.0</v>
       </c>
       <c r="H79" s="14">
         <v>50000.0</v>
       </c>
-      <c r="I79" s="17"/>
+      <c r="I79" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="J79" s="14">
         <v>42917.4</v>
       </c>
       <c r="K79" s="14">
         <v>42917.4</v>
       </c>
-      <c r="L79" s="18"/>
+      <c r="L79" s="17" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="11">
         <v>13504.0</v>
       </c>
       <c r="B80" s="12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C80" s="13"/>
       <c r="D80" s="14">
@@ -3482,28 +3911,34 @@
       <c r="E80" s="14">
         <v>2000.0</v>
       </c>
-      <c r="F80" s="17"/>
+      <c r="F80" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="G80" s="14">
         <v>2000.0</v>
       </c>
       <c r="H80" s="14">
         <v>2000.0</v>
       </c>
-      <c r="I80" s="17"/>
+      <c r="I80" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="J80" s="14">
         <v>290.4</v>
       </c>
       <c r="K80" s="14">
         <v>290.4</v>
       </c>
-      <c r="L80" s="18"/>
+      <c r="L80" s="17" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="11">
         <v>13505.0</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C81" s="13"/>
       <c r="D81" s="14">
@@ -3512,28 +3947,34 @@
       <c r="E81" s="14">
         <v>2000.0</v>
       </c>
-      <c r="F81" s="17"/>
+      <c r="F81" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="G81" s="14">
         <v>2000.0</v>
       </c>
       <c r="H81" s="14">
         <v>2000.0</v>
       </c>
-      <c r="I81" s="17"/>
+      <c r="I81" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="J81" s="14">
         <v>681.0</v>
       </c>
       <c r="K81" s="14">
         <v>681.0</v>
       </c>
-      <c r="L81" s="18"/>
+      <c r="L81" s="17" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="11">
         <v>13506.0</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C82" s="13"/>
       <c r="D82" s="14">
@@ -3542,28 +3983,34 @@
       <c r="E82" s="14">
         <v>0.0</v>
       </c>
-      <c r="F82" s="17"/>
+      <c r="F82" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="G82" s="14">
         <v>0.0</v>
       </c>
       <c r="H82" s="14">
         <v>0.0</v>
       </c>
-      <c r="I82" s="17"/>
+      <c r="I82" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="J82" s="14">
         <v>0.0</v>
       </c>
       <c r="K82" s="14">
         <v>0.0</v>
       </c>
-      <c r="L82" s="18"/>
+      <c r="L82" s="17" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="11">
         <v>13507.0</v>
       </c>
       <c r="B83" s="12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C83" s="13"/>
       <c r="D83" s="14">
@@ -3572,28 +4019,34 @@
       <c r="E83" s="14">
         <v>2880032.8</v>
       </c>
-      <c r="F83" s="17"/>
+      <c r="F83" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="G83" s="14">
         <v>3740996.3</v>
       </c>
       <c r="H83" s="14">
         <v>3740996.3</v>
       </c>
-      <c r="I83" s="17"/>
+      <c r="I83" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="J83" s="14">
         <v>3658291.6</v>
       </c>
       <c r="K83" s="14">
         <v>3658291.6</v>
       </c>
-      <c r="L83" s="18"/>
+      <c r="L83" s="17" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="11">
         <v>13508.0</v>
       </c>
       <c r="B84" s="12" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C84" s="13"/>
       <c r="D84" s="14">
@@ -3602,28 +4055,34 @@
       <c r="E84" s="14">
         <v>860963.5</v>
       </c>
-      <c r="F84" s="17"/>
+      <c r="F84" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="G84" s="14">
         <v>0.0</v>
       </c>
       <c r="H84" s="14">
         <v>0.0</v>
       </c>
-      <c r="I84" s="17"/>
+      <c r="I84" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="J84" s="14">
         <v>0.0</v>
       </c>
       <c r="K84" s="14">
         <v>0.0</v>
       </c>
-      <c r="L84" s="18"/>
+      <c r="L84" s="17" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="11">
         <v>13509.0</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C85" s="13"/>
       <c r="D85" s="14">
@@ -3632,28 +4091,34 @@
       <c r="E85" s="14">
         <v>0.0</v>
       </c>
-      <c r="F85" s="17"/>
+      <c r="F85" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="G85" s="14">
         <v>0.0</v>
       </c>
       <c r="H85" s="14">
         <v>0.0</v>
       </c>
-      <c r="I85" s="17"/>
+      <c r="I85" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="J85" s="14">
         <v>0.0</v>
       </c>
       <c r="K85" s="14">
         <v>0.0</v>
       </c>
-      <c r="L85" s="18"/>
+      <c r="L85" s="17" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="11">
         <v>13510.0</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C86" s="13"/>
       <c r="D86" s="14">
@@ -3662,28 +4127,34 @@
       <c r="E86" s="14">
         <v>0.0</v>
       </c>
-      <c r="F86" s="17"/>
+      <c r="F86" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="G86" s="14">
         <v>0.0</v>
       </c>
       <c r="H86" s="14">
         <v>0.0</v>
       </c>
-      <c r="I86" s="17"/>
+      <c r="I86" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="J86" s="14">
         <v>0.0</v>
       </c>
       <c r="K86" s="14">
         <v>0.0</v>
       </c>
-      <c r="L86" s="18"/>
+      <c r="L86" s="17" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="11">
         <v>13511.0</v>
       </c>
       <c r="B87" s="12" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C87" s="13"/>
       <c r="D87" s="14">
@@ -3692,28 +4163,34 @@
       <c r="E87" s="14">
         <v>0.0</v>
       </c>
-      <c r="F87" s="17"/>
+      <c r="F87" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="G87" s="14">
         <v>0.0</v>
       </c>
       <c r="H87" s="14">
         <v>0.0</v>
       </c>
-      <c r="I87" s="17"/>
+      <c r="I87" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="J87" s="14">
         <v>0.0</v>
       </c>
       <c r="K87" s="14">
         <v>0.0</v>
       </c>
-      <c r="L87" s="18"/>
+      <c r="L87" s="17" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="11">
         <v>13512.0</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C88" s="13"/>
       <c r="D88" s="14">
@@ -3722,28 +4199,34 @@
       <c r="E88" s="14">
         <v>14253.3</v>
       </c>
-      <c r="F88" s="17"/>
+      <c r="F88" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="G88" s="14">
         <v>14253.3</v>
       </c>
       <c r="H88" s="14">
         <v>14253.3</v>
       </c>
-      <c r="I88" s="17"/>
+      <c r="I88" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="J88" s="14">
         <v>0.0</v>
       </c>
       <c r="K88" s="14">
         <v>0.0</v>
       </c>
-      <c r="L88" s="18"/>
+      <c r="L88" s="17" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="11">
         <v>13513.0</v>
       </c>
       <c r="B89" s="12" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C89" s="13"/>
       <c r="D89" s="14">
@@ -3752,28 +4235,34 @@
       <c r="E89" s="14">
         <v>43200.0</v>
       </c>
-      <c r="F89" s="17"/>
+      <c r="F89" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="G89" s="14">
         <v>43200.0</v>
       </c>
       <c r="H89" s="14">
         <v>43200.0</v>
       </c>
-      <c r="I89" s="17"/>
+      <c r="I89" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="J89" s="14">
         <v>50940.0</v>
       </c>
       <c r="K89" s="14">
         <v>50940.0</v>
       </c>
-      <c r="L89" s="18"/>
+      <c r="L89" s="17" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="11">
         <v>13514.0</v>
       </c>
       <c r="B90" s="12" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C90" s="13"/>
       <c r="D90" s="14">
@@ -3782,28 +4271,34 @@
       <c r="E90" s="14">
         <v>650321.5</v>
       </c>
-      <c r="F90" s="17"/>
+      <c r="F90" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="G90" s="14">
         <v>650321.5</v>
       </c>
       <c r="H90" s="14">
         <v>650321.5</v>
       </c>
-      <c r="I90" s="17"/>
+      <c r="I90" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="J90" s="14">
         <v>622558.0</v>
       </c>
       <c r="K90" s="14">
         <v>622558.0</v>
       </c>
-      <c r="L90" s="18"/>
+      <c r="L90" s="17" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="11">
         <v>13515.0</v>
       </c>
       <c r="B91" s="12" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C91" s="13"/>
       <c r="D91" s="14">
@@ -3812,28 +4307,34 @@
       <c r="E91" s="14">
         <v>0.0</v>
       </c>
-      <c r="F91" s="17"/>
+      <c r="F91" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="G91" s="14">
         <v>0.0</v>
       </c>
       <c r="H91" s="14">
         <v>0.0</v>
       </c>
-      <c r="I91" s="17"/>
+      <c r="I91" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="J91" s="14">
         <v>0.0</v>
       </c>
       <c r="K91" s="14">
         <v>0.0</v>
       </c>
-      <c r="L91" s="18"/>
+      <c r="L91" s="17" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="11">
         <v>13516.0</v>
       </c>
       <c r="B92" s="12" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C92" s="13"/>
       <c r="D92" s="14">
@@ -3842,28 +4343,34 @@
       <c r="E92" s="14">
         <v>15000.0</v>
       </c>
-      <c r="F92" s="17"/>
+      <c r="F92" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="G92" s="14">
         <v>44081.6</v>
       </c>
       <c r="H92" s="14">
         <v>44081.6</v>
       </c>
-      <c r="I92" s="17"/>
+      <c r="I92" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="J92" s="14">
         <v>45929.4</v>
       </c>
       <c r="K92" s="14">
         <v>45929.4</v>
       </c>
-      <c r="L92" s="18"/>
+      <c r="L92" s="17" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="11">
         <v>13517.0</v>
       </c>
       <c r="B93" s="12" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C93" s="13"/>
       <c r="D93" s="14">
@@ -3872,28 +4379,34 @@
       <c r="E93" s="14">
         <v>1210000.0</v>
       </c>
-      <c r="F93" s="17"/>
+      <c r="F93" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="G93" s="14">
         <v>1210000.0</v>
       </c>
       <c r="H93" s="14">
         <v>1210000.0</v>
       </c>
-      <c r="I93" s="17"/>
+      <c r="I93" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="J93" s="14">
         <v>998220.3</v>
       </c>
       <c r="K93" s="14">
         <v>998220.3</v>
       </c>
-      <c r="L93" s="18"/>
+      <c r="L93" s="17" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="11">
         <v>13518.0</v>
       </c>
       <c r="B94" s="12" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C94" s="13"/>
       <c r="D94" s="14">
@@ -3902,28 +4415,34 @@
       <c r="E94" s="14">
         <v>2358.0</v>
       </c>
-      <c r="F94" s="17"/>
+      <c r="F94" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="G94" s="14">
         <v>2358.0</v>
       </c>
       <c r="H94" s="14">
         <v>2358.0</v>
       </c>
-      <c r="I94" s="17"/>
+      <c r="I94" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="J94" s="14">
         <v>1673.0</v>
       </c>
       <c r="K94" s="14">
         <v>1673.0</v>
       </c>
-      <c r="L94" s="18"/>
+      <c r="L94" s="17" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="11">
         <v>13519.0</v>
       </c>
       <c r="B95" s="12" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C95" s="13"/>
       <c r="D95" s="14">
@@ -3932,28 +4451,34 @@
       <c r="E95" s="14">
         <v>9000.0</v>
       </c>
-      <c r="F95" s="17"/>
+      <c r="F95" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="G95" s="14">
         <v>9000.0</v>
       </c>
       <c r="H95" s="14">
         <v>9000.0</v>
       </c>
-      <c r="I95" s="17"/>
+      <c r="I95" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="J95" s="14">
         <v>0.0</v>
       </c>
       <c r="K95" s="14">
         <v>0.0</v>
       </c>
-      <c r="L95" s="18"/>
+      <c r="L95" s="17" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="11">
         <v>13520.0</v>
       </c>
       <c r="B96" s="12" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C96" s="13"/>
       <c r="D96" s="14">
@@ -3962,28 +4487,34 @@
       <c r="E96" s="14">
         <v>169300.0</v>
       </c>
-      <c r="F96" s="17"/>
+      <c r="F96" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="G96" s="14">
         <v>169300.0</v>
       </c>
       <c r="H96" s="14">
         <v>169300.0</v>
       </c>
-      <c r="I96" s="17"/>
+      <c r="I96" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="J96" s="14">
         <v>125103.4</v>
       </c>
       <c r="K96" s="14">
         <v>125103.4</v>
       </c>
-      <c r="L96" s="18"/>
+      <c r="L96" s="17" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="11">
         <v>1352.0</v>
       </c>
       <c r="B97" s="12" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C97" s="13"/>
       <c r="D97" s="14">
@@ -3992,28 +4523,34 @@
       <c r="E97" s="14">
         <v>200000.0</v>
       </c>
-      <c r="F97" s="17"/>
+      <c r="F97" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="G97" s="14">
         <v>200000.0</v>
       </c>
       <c r="H97" s="14">
         <v>200000.0</v>
       </c>
-      <c r="I97" s="17"/>
+      <c r="I97" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="J97" s="14">
         <v>1066012.1</v>
       </c>
       <c r="K97" s="14">
         <v>1066012.1</v>
       </c>
-      <c r="L97" s="18"/>
+      <c r="L97" s="17" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="11">
         <v>1353.0</v>
       </c>
       <c r="B98" s="12" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C98" s="13"/>
       <c r="D98" s="14">
@@ -4022,28 +4559,34 @@
       <c r="E98" s="14">
         <v>0.0</v>
       </c>
-      <c r="F98" s="17"/>
+      <c r="F98" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="G98" s="14">
         <v>0.0</v>
       </c>
       <c r="H98" s="14">
         <v>0.0</v>
       </c>
-      <c r="I98" s="17"/>
+      <c r="I98" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="J98" s="14">
         <v>0.0</v>
       </c>
       <c r="K98" s="14">
         <v>0.0</v>
       </c>
-      <c r="L98" s="18"/>
+      <c r="L98" s="17" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="11">
         <v>1360.0</v>
       </c>
       <c r="B99" s="12" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C99" s="16">
         <v>7431.0</v>
@@ -4054,28 +4597,34 @@
       <c r="E99" s="14">
         <v>580700.0</v>
       </c>
-      <c r="F99" s="17"/>
+      <c r="F99" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="G99" s="14">
         <v>580700.0</v>
       </c>
       <c r="H99" s="14">
         <v>580700.0</v>
       </c>
-      <c r="I99" s="17"/>
+      <c r="I99" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="J99" s="14">
         <v>1676816.6</v>
       </c>
       <c r="K99" s="14">
         <v>1676816.6</v>
       </c>
-      <c r="L99" s="18"/>
+      <c r="L99" s="17" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="11">
         <v>1361.0</v>
       </c>
       <c r="B100" s="12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C100" s="13"/>
       <c r="D100" s="14">
@@ -4084,28 +4633,34 @@
       <c r="E100" s="14">
         <v>575700.0</v>
       </c>
-      <c r="F100" s="17"/>
+      <c r="F100" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="G100" s="14">
         <v>575700.0</v>
       </c>
       <c r="H100" s="14">
         <v>575700.0</v>
       </c>
-      <c r="I100" s="17"/>
+      <c r="I100" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="J100" s="14">
         <v>1668613.0</v>
       </c>
       <c r="K100" s="14">
         <v>1668613.0</v>
       </c>
-      <c r="L100" s="18"/>
+      <c r="L100" s="17" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="11">
         <v>1362.0</v>
       </c>
       <c r="B101" s="12" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C101" s="13"/>
       <c r="D101" s="14">
@@ -4114,28 +4669,34 @@
       <c r="E101" s="14">
         <v>5000.0</v>
       </c>
-      <c r="F101" s="17"/>
+      <c r="F101" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="G101" s="14">
         <v>5000.0</v>
       </c>
       <c r="H101" s="14">
         <v>5000.0</v>
       </c>
-      <c r="I101" s="17"/>
+      <c r="I101" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="J101" s="14">
         <v>8203.6</v>
       </c>
       <c r="K101" s="14">
         <v>8203.6</v>
       </c>
-      <c r="L101" s="18"/>
+      <c r="L101" s="17" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="102">
-      <c r="A102" s="19" t="s">
-        <v>110</v>
+      <c r="A102" s="18" t="s">
+        <v>111</v>
       </c>
       <c r="B102" s="12" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C102" s="16">
         <v>7441.0</v>
@@ -4146,26 +4707,32 @@
       <c r="E102" s="14">
         <v>0.0</v>
       </c>
-      <c r="F102" s="17"/>
+      <c r="F102" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="G102" s="14">
         <v>4650.0</v>
       </c>
       <c r="H102" s="14">
         <v>4650.0</v>
       </c>
-      <c r="I102" s="17"/>
+      <c r="I102" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="J102" s="14">
         <v>3450.0</v>
       </c>
       <c r="K102" s="14">
         <v>3450.0</v>
       </c>
-      <c r="L102" s="18"/>
+      <c r="L102" s="17" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="103">
-      <c r="A103" s="19"/>
+      <c r="A103" s="18"/>
       <c r="B103" s="12" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C103" s="13"/>
       <c r="D103" s="14">
@@ -4174,28 +4741,34 @@
       <c r="E103" s="14">
         <v>0.0</v>
       </c>
-      <c r="F103" s="17"/>
+      <c r="F103" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="G103" s="14">
         <v>0.0</v>
       </c>
       <c r="H103" s="14">
         <v>0.0</v>
       </c>
-      <c r="I103" s="17"/>
+      <c r="I103" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="J103" s="14">
         <v>0.0</v>
       </c>
       <c r="K103" s="14">
         <v>0.0</v>
       </c>
-      <c r="L103" s="18"/>
+      <c r="L103" s="17" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="11">
         <v>1372.0</v>
       </c>
       <c r="B104" s="12" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C104" s="13"/>
       <c r="D104" s="14">
@@ -4204,28 +4777,34 @@
       <c r="E104" s="14">
         <v>0.0</v>
       </c>
-      <c r="F104" s="17"/>
+      <c r="F104" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="G104" s="14">
         <v>4650.0</v>
       </c>
       <c r="H104" s="14">
         <v>4650.0</v>
       </c>
-      <c r="I104" s="17"/>
+      <c r="I104" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="J104" s="14">
         <v>3450.0</v>
       </c>
       <c r="K104" s="14">
         <v>3450.0</v>
       </c>
-      <c r="L104" s="18"/>
+      <c r="L104" s="17" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="11">
         <v>1380.0</v>
       </c>
       <c r="B105" s="12" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C105" s="16">
         <v>7442.0</v>
@@ -4233,21 +4812,27 @@
       <c r="D105" s="14">
         <v>12000.0</v>
       </c>
-      <c r="E105" s="17"/>
+      <c r="E105" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="F105" s="14">
         <v>12000.0</v>
       </c>
       <c r="G105" s="14">
         <v>12000.0</v>
       </c>
-      <c r="H105" s="17"/>
+      <c r="H105" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="I105" s="14">
         <v>12000.0</v>
       </c>
       <c r="J105" s="14">
         <v>1515.0</v>
       </c>
-      <c r="K105" s="17"/>
+      <c r="K105" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="L105" s="15">
         <v>1515.0</v>
       </c>
@@ -4257,27 +4842,33 @@
         <v>1381.0</v>
       </c>
       <c r="B106" s="12" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C106" s="13"/>
       <c r="D106" s="14">
         <v>12000.0</v>
       </c>
-      <c r="E106" s="17"/>
+      <c r="E106" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="F106" s="14">
         <v>12000.0</v>
       </c>
       <c r="G106" s="14">
         <v>12000.0</v>
       </c>
-      <c r="H106" s="17"/>
+      <c r="H106" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="I106" s="14">
         <v>12000.0</v>
       </c>
       <c r="J106" s="14">
         <v>1515.0</v>
       </c>
-      <c r="K106" s="17"/>
+      <c r="K106" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="L106" s="15">
         <v>1515.0</v>
       </c>
@@ -4287,27 +4878,33 @@
         <v>1382.0</v>
       </c>
       <c r="B107" s="12" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C107" s="13"/>
       <c r="D107" s="14">
         <v>0.0</v>
       </c>
-      <c r="E107" s="17"/>
+      <c r="E107" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="F107" s="14">
         <v>0.0</v>
       </c>
       <c r="G107" s="14">
         <v>0.0</v>
       </c>
-      <c r="H107" s="17"/>
+      <c r="H107" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="I107" s="14">
         <v>0.0</v>
       </c>
       <c r="J107" s="14">
         <v>0.0</v>
       </c>
-      <c r="K107" s="17"/>
+      <c r="K107" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="L107" s="15">
         <v>0.0</v>
       </c>
@@ -4317,7 +4914,7 @@
         <v>1390.0</v>
       </c>
       <c r="B108" s="12" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C108" s="16">
         <v>7452.0</v>
@@ -4355,27 +4952,33 @@
         <v>1391.0</v>
       </c>
       <c r="B109" s="12" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C109" s="13"/>
       <c r="D109" s="14">
         <v>15000.0</v>
       </c>
-      <c r="E109" s="17"/>
+      <c r="E109" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="F109" s="14">
         <v>15000.0</v>
       </c>
       <c r="G109" s="14">
         <v>15000.0</v>
       </c>
-      <c r="H109" s="17"/>
+      <c r="H109" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="I109" s="14">
         <v>15000.0</v>
       </c>
       <c r="J109" s="14">
         <v>364130.9</v>
       </c>
-      <c r="K109" s="17"/>
+      <c r="K109" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="L109" s="15">
         <v>364130.9</v>
       </c>
@@ -4385,64 +4988,70 @@
         <v>1392.0</v>
       </c>
       <c r="B110" s="12" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C110" s="13"/>
       <c r="D110" s="14">
         <v>5375454.9</v>
       </c>
-      <c r="E110" s="17"/>
+      <c r="E110" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="F110" s="14">
         <v>5375454.9</v>
       </c>
       <c r="G110" s="14">
         <v>3124224.9</v>
       </c>
-      <c r="H110" s="17"/>
+      <c r="H110" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="I110" s="14">
         <v>3124224.9</v>
       </c>
       <c r="J110" s="14">
         <v>0.0</v>
       </c>
-      <c r="K110" s="17"/>
+      <c r="K110" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="L110" s="15">
         <v>0.0</v>
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="20">
+      <c r="A111" s="19">
         <v>1393.0</v>
       </c>
-      <c r="B111" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="C111" s="22"/>
-      <c r="D111" s="23">
+      <c r="B111" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="C111" s="21"/>
+      <c r="D111" s="22">
         <v>728020.0</v>
       </c>
-      <c r="E111" s="23">
+      <c r="E111" s="22">
         <v>728020.0</v>
       </c>
-      <c r="F111" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="G111" s="23">
+      <c r="F111" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="G111" s="22">
         <v>728020.0</v>
       </c>
-      <c r="H111" s="23">
+      <c r="H111" s="22">
         <v>728020.0</v>
       </c>
-      <c r="I111" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="J111" s="23">
+      <c r="I111" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="J111" s="22">
         <v>1668027.9</v>
       </c>
-      <c r="K111" s="23">
+      <c r="K111" s="22">
         <v>1668027.9</v>
       </c>
-      <c r="L111" s="24">
+      <c r="L111" s="23">
         <v>0.0</v>
       </c>
     </row>
